--- a/cleaned_data/inflow_mass.xlsx
+++ b/cleaned_data/inflow_mass.xlsx
@@ -390,13 +390,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B2">
+        <v>2008</v>
       </c>
       <c r="C2">
-        <v>2700.875</v>
+        <v>6386.2625</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -415,13 +413,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B3">
+        <v>2009</v>
       </c>
       <c r="C3">
-        <v>1111.443</v>
+        <v>2628.0249</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -440,10 +436,8 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B4">
+        <v>2010</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -465,10 +459,8 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B5">
+        <v>2011</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -490,13 +482,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B6">
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>6771.4275</v>
+        <v>17255.36975</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -515,13 +505,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B7">
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>1943.4327</v>
+        <v>4952.37523</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -540,13 +528,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B8">
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>-565.3329</v>
+        <v>-1440.61621</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -565,13 +551,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B9">
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>1032.8169</v>
+        <v>2631.88781</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -590,13 +574,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B10">
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>-533.7435</v>
+        <v>-1360.11815</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -615,13 +597,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B11">
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>1806.7572</v>
+        <v>4604.09028</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,13 +620,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B12">
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>6493.1376</v>
+        <v>16546.21424</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -665,13 +643,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B13">
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>3446.7654</v>
+        <v>8783.26046</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -690,13 +666,11 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B14">
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>8257.694099999999</v>
+        <v>21042.76609</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -715,13 +689,11 @@
           <t>0102</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B15">
+        <v>2012</v>
       </c>
       <c r="C15">
-        <v>43509.4212</v>
+        <v>44120.7948</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -740,13 +712,11 @@
           <t>0102</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B16">
+        <v>2013</v>
       </c>
       <c r="C16">
-        <v>48319.83240000001</v>
+        <v>48998.79959999999</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -765,13 +735,11 @@
           <t>0102</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B17">
+        <v>2014</v>
       </c>
       <c r="C17">
-        <v>53510.1455</v>
+        <v>54262.0445</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -790,13 +758,11 @@
           <t>0102</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B18">
+        <v>2015</v>
       </c>
       <c r="C18">
-        <v>58003.2957</v>
+        <v>58818.33029999999</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -815,13 +781,11 @@
           <t>0102</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B19">
+        <v>2016</v>
       </c>
       <c r="C19">
-        <v>65012.2018</v>
+        <v>65925.72219999999</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -840,13 +804,11 @@
           <t>0102</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B20">
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>59076.26130000001</v>
+        <v>59906.37269999999</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -865,13 +827,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B21">
+        <v>2008</v>
       </c>
       <c r="C21">
-        <v>285112.9988</v>
+        <v>294093.43026</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -890,13 +850,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B22">
+        <v>2009</v>
       </c>
       <c r="C22">
-        <v>230505.7426</v>
+        <v>239847.82556</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -915,13 +873,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B23">
+        <v>2010</v>
       </c>
       <c r="C23">
-        <v>277662.7017</v>
+        <v>277429.86086</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -940,13 +896,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B24">
+        <v>2011</v>
       </c>
       <c r="C24">
-        <v>275107.4127</v>
+        <v>274876.7146599999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -965,13 +919,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B25">
+        <v>2012</v>
       </c>
       <c r="C25">
-        <v>291985.506</v>
+        <v>303181.4644</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -990,13 +942,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B26">
+        <v>2013</v>
       </c>
       <c r="C26">
-        <v>333187.9164</v>
+        <v>345963.74936</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1015,13 +965,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B27">
+        <v>2014</v>
       </c>
       <c r="C27">
-        <v>354069.9837</v>
+        <v>367646.52338</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1040,13 +988,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B28">
+        <v>2015</v>
       </c>
       <c r="C28">
-        <v>365552.6030999999</v>
+        <v>379569.43494</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1065,13 +1011,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B29">
+        <v>2016</v>
       </c>
       <c r="C29">
-        <v>396255.7098</v>
+        <v>411449.82852</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1090,13 +1034,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B30">
+        <v>2017</v>
       </c>
       <c r="C30">
-        <v>483998.4711</v>
+        <v>502557.01814</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1115,13 +1057,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B31">
+        <v>2018</v>
       </c>
       <c r="C31">
-        <v>400786.0857</v>
+        <v>416153.9181799999</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1140,13 +1080,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B32">
+        <v>2019</v>
       </c>
       <c r="C32">
-        <v>360188.0405999999</v>
+        <v>373999.17244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1165,13 +1103,11 @@
           <t>0103</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B33">
+        <v>2020</v>
       </c>
       <c r="C33">
-        <v>400445.1405</v>
+        <v>415799.8997</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1190,13 +1126,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B34">
+        <v>2008</v>
       </c>
       <c r="C34">
-        <v>1055979.0108</v>
+        <v>1066035.95376</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1215,13 +1149,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B35">
+        <v>2009</v>
       </c>
       <c r="C35">
-        <v>981752.4276000001</v>
+        <v>994264.9585400001</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1240,13 +1172,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B36">
+        <v>2010</v>
       </c>
       <c r="C36">
-        <v>203775.8092</v>
+        <v>204169.85082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1265,13 +1195,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B37">
+        <v>2011</v>
       </c>
       <c r="C37">
-        <v>218302.1452</v>
+        <v>218724.27642</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1290,13 +1218,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B38">
+        <v>2012</v>
       </c>
       <c r="C38">
-        <v>210655.2305</v>
+        <v>213719.30658</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1315,13 +1241,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B39">
+        <v>2013</v>
       </c>
       <c r="C39">
-        <v>209009.801</v>
+        <v>212049.94356</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1340,13 +1264,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B40">
+        <v>2014</v>
       </c>
       <c r="C40">
-        <v>247689.6565</v>
+        <v>251292.41514</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1365,13 +1287,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B41">
+        <v>2015</v>
       </c>
       <c r="C41">
-        <v>244224.409</v>
+        <v>247776.76404</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1390,13 +1310,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B42">
+        <v>2016</v>
       </c>
       <c r="C42">
-        <v>269273.719</v>
+        <v>273190.4276400001</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1415,13 +1333,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B43">
+        <v>2017</v>
       </c>
       <c r="C43">
-        <v>253568.744</v>
+        <v>257257.01664</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1440,13 +1356,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B44">
+        <v>2018</v>
       </c>
       <c r="C44">
-        <v>310249.8685</v>
+        <v>314762.59386</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1465,13 +1379,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B45">
+        <v>2019</v>
       </c>
       <c r="C45">
-        <v>295020.154</v>
+        <v>299311.35624</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1490,13 +1402,11 @@
           <t>0104</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B46">
+        <v>2020</v>
       </c>
       <c r="C46">
-        <v>274881.1065</v>
+        <v>278879.3771400001</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1515,10 +1425,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B47">
+        <v>2008</v>
+      </c>
+      <c r="C47">
+        <v>115257.16517</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1537,10 +1448,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B48">
+        <v>2009</v>
+      </c>
+      <c r="C48">
+        <v>87642.47742</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1559,10 +1471,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B49">
+        <v>2010</v>
+      </c>
+      <c r="C49">
+        <v>1185.64028</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1581,10 +1494,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B50">
+        <v>2011</v>
+      </c>
+      <c r="C50">
+        <v>1725.35352</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1603,10 +1517,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B51">
+        <v>2012</v>
+      </c>
+      <c r="C51">
+        <v>1467.03788</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1625,10 +1540,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B52">
+        <v>2013</v>
+      </c>
+      <c r="C52">
+        <v>650.3871</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1647,10 +1563,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B53">
+        <v>2014</v>
+      </c>
+      <c r="C53">
+        <v>-14.4837</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1669,10 +1586,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B54">
+        <v>2015</v>
+      </c>
+      <c r="C54">
+        <v>-144.42318</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1691,10 +1609,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B55">
+        <v>2016</v>
+      </c>
+      <c r="C55">
+        <v>765.29112</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1713,10 +1632,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B56">
+        <v>2017</v>
+      </c>
+      <c r="C56">
+        <v>1185.3644</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1735,10 +1655,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B57">
+        <v>2018</v>
+      </c>
+      <c r="C57">
+        <v>10485.00332</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1757,10 +1678,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B58">
+        <v>2019</v>
+      </c>
+      <c r="C58">
+        <v>9381.94312</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1779,10 +1701,11 @@
           <t>0105</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B59">
+        <v>2020</v>
+      </c>
+      <c r="C59">
+        <v>4166.06388</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1801,13 +1724,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B60">
+        <v>2008</v>
       </c>
       <c r="C60">
-        <v>67051.628</v>
+        <v>145358.3507</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1826,13 +1747,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B61">
+        <v>2009</v>
       </c>
       <c r="C61">
-        <v>61843.86319999999</v>
+        <v>134068.66058</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1851,13 +1770,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B62">
+        <v>2010</v>
       </c>
       <c r="C62">
-        <v>66470.2362</v>
+        <v>152254.46556</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1876,13 +1793,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B63">
+        <v>2011</v>
       </c>
       <c r="C63">
-        <v>72773.51669999999</v>
+        <v>173229.50838</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1901,13 +1816,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B64">
+        <v>2012</v>
       </c>
       <c r="C64">
-        <v>49663.7752</v>
+        <v>115945.81364</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1926,13 +1839,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B65">
+        <v>2013</v>
       </c>
       <c r="C65">
-        <v>64498.85</v>
+        <v>150580.0075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1951,13 +1862,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B66">
+        <v>2014</v>
       </c>
       <c r="C66">
-        <v>55247.2232</v>
+        <v>128981.01724</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1976,13 +1885,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B67">
+        <v>2015</v>
       </c>
       <c r="C67">
-        <v>55152.03720000001</v>
+        <v>128758.79454</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2001,13 +1908,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B68">
+        <v>2016</v>
       </c>
       <c r="C68">
-        <v>65452.43640000001</v>
+        <v>152806.26498</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2026,13 +1931,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B69">
+        <v>2017</v>
       </c>
       <c r="C69">
-        <v>66351.1056</v>
+        <v>154904.31192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2051,13 +1954,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B70">
+        <v>2018</v>
       </c>
       <c r="C70">
-        <v>75357.87479999999</v>
+        <v>175931.65386</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2076,13 +1977,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B71">
+        <v>2019</v>
       </c>
       <c r="C71">
-        <v>66797.52040000001</v>
+        <v>155946.51878</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2101,13 +2000,11 @@
           <t>0106</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B72">
+        <v>2020</v>
       </c>
       <c r="C72">
-        <v>49193.6172</v>
+        <v>114848.17554</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2126,13 +2023,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B73">
+        <v>2012</v>
       </c>
       <c r="C73">
-        <v>179009.2719</v>
+        <v>134968.35861</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2151,13 +2046,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B74">
+        <v>2013</v>
       </c>
       <c r="C74">
-        <v>176018.678</v>
+        <v>132713.5282</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2176,13 +2069,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B75">
+        <v>2014</v>
       </c>
       <c r="C75">
-        <v>202728.3349</v>
+        <v>152851.91831</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2201,13 +2092,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B76">
+        <v>2015</v>
       </c>
       <c r="C76">
-        <v>209084.2734</v>
+        <v>157644.13146</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2226,13 +2115,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B77">
+        <v>2016</v>
       </c>
       <c r="C77">
-        <v>220479.0318</v>
+        <v>166235.48442</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2251,13 +2138,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B78">
+        <v>2017</v>
       </c>
       <c r="C78">
-        <v>219742.5685</v>
+        <v>165680.21015</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2276,13 +2161,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B79">
+        <v>2018</v>
       </c>
       <c r="C79">
-        <v>204172.4803</v>
+        <v>153940.76657</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2301,13 +2184,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B80">
+        <v>2019</v>
       </c>
       <c r="C80">
-        <v>188459.7304</v>
+        <v>142093.75976</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2326,13 +2207,11 @@
           <t>0108</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B81">
+        <v>2020</v>
       </c>
       <c r="C81">
-        <v>209210.651</v>
+        <v>157739.4169</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2351,13 +2230,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B82">
+        <v>2012</v>
       </c>
       <c r="C82">
-        <v>28179.5967</v>
+        <v>28693.72791000001</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2376,13 +2253,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B83">
+        <v>2013</v>
       </c>
       <c r="C83">
-        <v>32298.1628</v>
+        <v>32887.43644</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2401,13 +2276,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B84">
+        <v>2014</v>
       </c>
       <c r="C84">
-        <v>36779.71279999999</v>
+        <v>37450.75144000001</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2426,13 +2299,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B85">
+        <v>2015</v>
       </c>
       <c r="C85">
-        <v>36740.13659999999</v>
+        <v>37410.45318</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2451,13 +2322,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B86">
+        <v>2016</v>
       </c>
       <c r="C86">
-        <v>36298.5199</v>
+        <v>36960.77927000001</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2476,13 +2345,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B87">
+        <v>2017</v>
       </c>
       <c r="C87">
-        <v>36224.1738</v>
+        <v>36885.07674</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2501,13 +2368,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B88">
+        <v>2018</v>
       </c>
       <c r="C88">
-        <v>32041.7835</v>
+        <v>32626.37955</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2526,13 +2391,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B89">
+        <v>2019</v>
       </c>
       <c r="C89">
-        <v>37489.573</v>
+        <v>38173.5629</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2551,13 +2414,11 @@
           <t>0109</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B90">
+        <v>2020</v>
       </c>
       <c r="C90">
-        <v>56225.0933</v>
+        <v>57250.90909</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2576,13 +2437,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B91">
+        <v>2008</v>
       </c>
       <c r="C91">
-        <v>19393.262</v>
+        <v>19466.169</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2601,13 +2460,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B92">
+        <v>2009</v>
       </c>
       <c r="C92">
-        <v>16515.5676</v>
+        <v>16577.6562</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2626,13 +2483,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B93">
+        <v>2010</v>
       </c>
       <c r="C93">
-        <v>4904.0824</v>
+        <v>4922.5188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2651,13 +2506,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B94">
+        <v>2011</v>
       </c>
       <c r="C94">
-        <v>13294.148</v>
+        <v>13344.126</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2676,13 +2529,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B95">
+        <v>2012</v>
       </c>
       <c r="C95">
-        <v>11923.8336</v>
+        <v>12633.5856</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2701,13 +2552,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B96">
+        <v>2013</v>
       </c>
       <c r="C96">
-        <v>12391.596</v>
+        <v>13129.191</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2726,13 +2575,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B97">
+        <v>2014</v>
       </c>
       <c r="C97">
-        <v>15733.2168</v>
+        <v>16669.7178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2751,13 +2598,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B98">
+        <v>2015</v>
       </c>
       <c r="C98">
-        <v>15257.844</v>
+        <v>16166.049</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2776,13 +2621,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B99">
+        <v>2016</v>
       </c>
       <c r="C99">
-        <v>16071.8544</v>
+        <v>17028.5124</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2801,13 +2644,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B100">
+        <v>2017</v>
       </c>
       <c r="C100">
-        <v>1348.5528</v>
+        <v>1428.8238</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2826,13 +2667,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B101">
+        <v>2018</v>
       </c>
       <c r="C101">
-        <v>17253.7848</v>
+        <v>18280.7958</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2851,13 +2690,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B102">
+        <v>2019</v>
       </c>
       <c r="C102">
-        <v>17334.8784</v>
+        <v>18366.7164</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2876,13 +2713,11 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B103">
+        <v>2020</v>
       </c>
       <c r="C103">
-        <v>15038.5536</v>
+        <v>15933.7056</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2901,13 +2736,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B104">
+        <v>2008</v>
       </c>
       <c r="C104">
-        <v>574.4928000000001</v>
+        <v>581.4648000000001</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2926,13 +2759,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B105">
+        <v>2009</v>
       </c>
       <c r="C105">
-        <v>586.3996000000001</v>
+        <v>593.5161000000001</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2951,13 +2782,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B106">
+        <v>2010</v>
       </c>
       <c r="C106">
-        <v>444.891</v>
+        <v>452.4867</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2976,13 +2805,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B107">
+        <v>2011</v>
       </c>
       <c r="C107">
-        <v>514.386</v>
+        <v>523.1682</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3001,13 +2828,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B108">
+        <v>2012</v>
       </c>
       <c r="C108">
-        <v>390.1728</v>
+        <v>419.3352</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3026,13 +2851,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B109">
+        <v>2013</v>
       </c>
       <c r="C109">
-        <v>393.6648</v>
+        <v>423.0882</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3051,13 +2874,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B110">
+        <v>2014</v>
       </c>
       <c r="C110">
-        <v>394.402</v>
+        <v>423.8805</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3076,13 +2897,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B111">
+        <v>2015</v>
       </c>
       <c r="C111">
-        <v>332.6711999999999</v>
+        <v>357.5358000000001</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3101,13 +2920,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B112">
+        <v>2016</v>
       </c>
       <c r="C112">
-        <v>247.932</v>
+        <v>266.463</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3126,13 +2943,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B113">
+        <v>2017</v>
       </c>
       <c r="C113">
-        <v>318.0824</v>
+        <v>341.8566</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3151,13 +2966,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B114">
+        <v>2018</v>
       </c>
       <c r="C114">
-        <v>282.852</v>
+        <v>303.993</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3176,13 +2989,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B115">
+        <v>2019</v>
       </c>
       <c r="C115">
-        <v>342.6428</v>
+        <v>368.2527</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3201,13 +3012,11 @@
           <t>0112</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B116">
+        <v>2020</v>
       </c>
       <c r="C116">
-        <v>309.042</v>
+        <v>332.1405</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3226,13 +3035,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B117">
+        <v>2008</v>
       </c>
       <c r="C117">
-        <v>31623.08</v>
+        <v>31106.6664</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3251,13 +3058,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B118">
+        <v>2009</v>
       </c>
       <c r="C118">
-        <v>38143.896</v>
+        <v>38024.91504</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3276,13 +3081,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B119">
+        <v>2010</v>
       </c>
       <c r="C119">
-        <v>71076.1568</v>
+        <v>86757.03839999999</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3301,13 +3104,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B120">
+        <v>2011</v>
       </c>
       <c r="C120">
-        <v>59871.21919999999</v>
+        <v>71032.55639999999</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3326,13 +3127,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B121">
+        <v>2012</v>
       </c>
       <c r="C121">
-        <v>43053.203</v>
+        <v>52377.43259999999</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3351,13 +3150,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B122">
+        <v>2013</v>
       </c>
       <c r="C122">
-        <v>57777.1005</v>
+        <v>70290.15209999999</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3376,13 +3173,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B123">
+        <v>2014</v>
       </c>
       <c r="C123">
-        <v>71230.10649999999</v>
+        <v>86656.73729999999</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3401,13 +3196,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B124">
+        <v>2015</v>
       </c>
       <c r="C124">
-        <v>40829.075</v>
+        <v>49671.615</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3426,13 +3219,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B125">
+        <v>2016</v>
       </c>
       <c r="C125">
-        <v>52400.948</v>
+        <v>63749.66159999999</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3451,13 +3242,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B126">
+        <v>2017</v>
       </c>
       <c r="C126">
-        <v>75834.837</v>
+        <v>92258.73539999999</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3476,13 +3265,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B127">
+        <v>2018</v>
       </c>
       <c r="C127">
-        <v>72994.58500000001</v>
+        <v>88803.357</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3501,13 +3288,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B128">
+        <v>2019</v>
       </c>
       <c r="C128">
-        <v>90869.24000000001</v>
+        <v>110549.208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3526,13 +3311,11 @@
           <t>0113</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B129">
+        <v>2020</v>
       </c>
       <c r="C129">
-        <v>71556.99249999999</v>
+        <v>87054.4185</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3551,13 +3334,11 @@
           <t>0114</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B130">
+        <v>2008</v>
       </c>
       <c r="C130">
-        <v>83781.93040000001</v>
+        <v>89313.16464</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3576,13 +3357,11 @@
           <t>0114</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B131">
+        <v>2014</v>
       </c>
       <c r="C131">
-        <v>87216.29639999999</v>
+        <v>89966.35979999999</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3601,13 +3380,11 @@
           <t>0114</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B132">
+        <v>2015</v>
       </c>
       <c r="C132">
-        <v>81880.7262</v>
+        <v>84462.55089999999</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3626,13 +3403,11 @@
           <t>0114</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B133">
+        <v>2016</v>
       </c>
       <c r="C133">
-        <v>85674.17339999999</v>
+        <v>88375.6113</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3651,13 +3426,11 @@
           <t>0114</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B134">
+        <v>2018</v>
       </c>
       <c r="C134">
-        <v>86305.54139999999</v>
+        <v>89026.8873</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3676,13 +3449,11 @@
           <t>0114</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B135">
+        <v>2019</v>
       </c>
       <c r="C135">
-        <v>99458.77499999999</v>
+        <v>102594.8625</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3701,13 +3472,11 @@
           <t>0114</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B136">
+        <v>2020</v>
       </c>
       <c r="C136">
-        <v>102140.868</v>
+        <v>105361.526</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3726,13 +3495,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B137">
+        <v>2008</v>
       </c>
       <c r="C137">
-        <v>41401.9016</v>
+        <v>53304.94831</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3751,13 +3518,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B138">
+        <v>2009</v>
       </c>
       <c r="C138">
-        <v>40300.91680000001</v>
+        <v>50879.90746</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3776,13 +3541,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B139">
+        <v>2010</v>
       </c>
       <c r="C139">
-        <v>45494.072</v>
+        <v>56298.9141</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3801,13 +3564,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B140">
+        <v>2011</v>
       </c>
       <c r="C140">
-        <v>55431.63630000001</v>
+        <v>60974.79993</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3826,13 +3587,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B141">
+        <v>2012</v>
       </c>
       <c r="C141">
-        <v>44068.9112</v>
+        <v>54535.27761</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3851,13 +3610,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B142">
+        <v>2013</v>
       </c>
       <c r="C142">
-        <v>46074.6696</v>
+        <v>57017.40363</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3876,13 +3633,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B143">
+        <v>2014</v>
       </c>
       <c r="C143">
-        <v>48655.0128</v>
+        <v>60210.57833999999</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3901,13 +3656,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B144">
+        <v>2015</v>
       </c>
       <c r="C144">
-        <v>48463.9072</v>
+        <v>59974.08516</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3926,13 +3679,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B145">
+        <v>2016</v>
       </c>
       <c r="C145">
-        <v>52524.9688</v>
+        <v>64999.64889</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3951,13 +3702,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B146">
+        <v>2017</v>
       </c>
       <c r="C146">
-        <v>51241.31040000001</v>
+        <v>63411.12162</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3976,13 +3725,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B147">
+        <v>2018</v>
       </c>
       <c r="C147">
-        <v>46878.59040000001</v>
+        <v>58012.25562</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4001,13 +3748,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B148">
+        <v>2019</v>
       </c>
       <c r="C148">
-        <v>36376.1088</v>
+        <v>45015.43464</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4026,13 +3771,11 @@
           <t>0201</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B149">
+        <v>2020</v>
       </c>
       <c r="C149">
-        <v>30318.6672</v>
+        <v>37519.35066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4051,13 +3794,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B150">
+        <v>2008</v>
       </c>
       <c r="C150">
-        <v>204823.1115</v>
+        <v>148838.12769</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4076,13 +3817,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B151">
+        <v>2009</v>
       </c>
       <c r="C151">
-        <v>167588.019</v>
+        <v>121780.62714</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4101,13 +3840,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B152">
+        <v>2010</v>
       </c>
       <c r="C152">
-        <v>115865.385</v>
+        <v>126293.26965</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4126,13 +3863,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B153">
+        <v>2011</v>
       </c>
       <c r="C153">
-        <v>86232.8835</v>
+        <v>104437.60335</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4151,13 +3886,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B154">
+        <v>2012</v>
       </c>
       <c r="C154">
-        <v>70755.0428</v>
+        <v>88988.07306</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4176,13 +3909,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B155">
+        <v>2013</v>
       </c>
       <c r="C155">
-        <v>69102.64660000001</v>
+        <v>86909.86707000001</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4201,13 +3932,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B156">
+        <v>2014</v>
       </c>
       <c r="C156">
-        <v>69539.015</v>
+        <v>87458.68425000001</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4226,13 +3955,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B157">
+        <v>2015</v>
       </c>
       <c r="C157">
-        <v>79265.1678</v>
+        <v>99691.19181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4251,13 +3978,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B158">
+        <v>2016</v>
       </c>
       <c r="C158">
-        <v>81689.0178</v>
+        <v>102739.64931</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4276,13 +4001,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B159">
+        <v>2017</v>
       </c>
       <c r="C159">
-        <v>69327.64540000001</v>
+        <v>87192.84633</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4301,13 +4024,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B160">
+        <v>2018</v>
       </c>
       <c r="C160">
-        <v>66343.0248</v>
+        <v>83439.11195999999</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4326,13 +4047,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B161">
+        <v>2019</v>
       </c>
       <c r="C161">
-        <v>60009.6952</v>
+        <v>75473.73204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4351,13 +4070,11 @@
           <t>0202</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B162">
+        <v>2020</v>
       </c>
       <c r="C162">
-        <v>66979.302</v>
+        <v>84239.35290000001</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4376,13 +4093,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B163">
+        <v>2008</v>
       </c>
       <c r="C163">
-        <v>5547.7149</v>
+        <v>8065.52397</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4401,13 +4116,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B164">
+        <v>2009</v>
       </c>
       <c r="C164">
-        <v>5534.0688</v>
+        <v>8045.684639999999</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4426,13 +4139,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B165">
+        <v>2010</v>
       </c>
       <c r="C165">
-        <v>13629.7504</v>
+        <v>9200.08152</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4451,13 +4162,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B166">
+        <v>2011</v>
       </c>
       <c r="C166">
-        <v>16026.8529</v>
+        <v>10445.08689</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4476,13 +4185,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B167">
+        <v>2012</v>
       </c>
       <c r="C167">
-        <v>21023.3352</v>
+        <v>14190.75126</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4501,13 +4208,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B168">
+        <v>2013</v>
       </c>
       <c r="C168">
-        <v>28199.2452</v>
+        <v>19034.49051</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4526,13 +4231,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B169">
+        <v>2014</v>
       </c>
       <c r="C169">
-        <v>31623.1412</v>
+        <v>21345.62031</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4551,13 +4254,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B170">
+        <v>2015</v>
       </c>
       <c r="C170">
-        <v>32411.596</v>
+        <v>21877.8273</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4576,13 +4277,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B171">
+        <v>2016</v>
       </c>
       <c r="C171">
-        <v>31517.07999999999</v>
+        <v>21274.029</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4601,13 +4300,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B172">
+        <v>2017</v>
       </c>
       <c r="C172">
-        <v>37640.26559999999</v>
+        <v>25407.17928</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4626,13 +4323,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B173">
+        <v>2018</v>
       </c>
       <c r="C173">
-        <v>33791.828</v>
+        <v>22809.4839</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4651,13 +4346,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B174">
+        <v>2019</v>
       </c>
       <c r="C174">
-        <v>33968.0012</v>
+        <v>22928.40081</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4676,13 +4369,11 @@
           <t>0203</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B175">
+        <v>2020</v>
       </c>
       <c r="C175">
-        <v>34836.9924</v>
+        <v>23514.96987</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4701,13 +4392,11 @@
           <t>0204</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B176">
+        <v>2008</v>
       </c>
       <c r="C176">
-        <v>46112.363</v>
+        <v>48040.69818000001</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4726,13 +4415,11 @@
           <t>0204</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B177">
+        <v>2012</v>
       </c>
       <c r="C177">
-        <v>42325.4884</v>
+        <v>42909.28824</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4751,13 +4438,11 @@
           <t>0204</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B178">
+        <v>2013</v>
       </c>
       <c r="C178">
-        <v>43670.8042</v>
+        <v>44273.16012</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4776,13 +4461,11 @@
           <t>0204</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B179">
+        <v>2014</v>
       </c>
       <c r="C179">
-        <v>48091.4598</v>
+        <v>48754.79028</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4801,13 +4484,11 @@
           <t>0204</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B180">
+        <v>2015</v>
       </c>
       <c r="C180">
-        <v>53482.8904</v>
+        <v>54220.58544</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4826,13 +4507,11 @@
           <t>0204</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B181">
+        <v>2016</v>
       </c>
       <c r="C181">
-        <v>55493.646</v>
+        <v>56259.0756</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4851,13 +4530,11 @@
           <t>0204</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B182">
+        <v>2018</v>
       </c>
       <c r="C182">
-        <v>83691.8308</v>
+        <v>84846.20087999999</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4876,13 +4553,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B183">
+        <v>2008</v>
       </c>
       <c r="C183">
-        <v>5163.7435</v>
+        <v>5680.117850000001</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4901,13 +4576,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B184">
+        <v>2009</v>
       </c>
       <c r="C184">
-        <v>4093.177</v>
+        <v>4502.4947</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4926,13 +4599,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B185">
+        <v>2010</v>
       </c>
       <c r="C185">
-        <v>4734.345</v>
+        <v>5207.7795</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4951,13 +4622,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B186">
+        <v>2011</v>
       </c>
       <c r="C186">
-        <v>6754.5805</v>
+        <v>7430.038550000001</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4976,13 +4645,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B187">
+        <v>2012</v>
       </c>
       <c r="C187">
-        <v>7881.298</v>
+        <v>8669.427800000001</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5001,13 +4668,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B188">
+        <v>2013</v>
       </c>
       <c r="C188">
-        <v>7595.473</v>
+        <v>8355.0203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5026,13 +4691,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B189">
+        <v>2014</v>
       </c>
       <c r="C189">
-        <v>7510.22</v>
+        <v>8261.242</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5051,13 +4714,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B190">
+        <v>2015</v>
       </c>
       <c r="C190">
-        <v>8477.290999999999</v>
+        <v>9325.020100000002</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5076,13 +4737,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B191">
+        <v>2016</v>
       </c>
       <c r="C191">
-        <v>8384.502500000001</v>
+        <v>9222.95275</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5101,13 +4760,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B192">
+        <v>2017</v>
       </c>
       <c r="C192">
-        <v>8061.402</v>
+        <v>8867.542200000002</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5126,13 +4783,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B193">
+        <v>2018</v>
       </c>
       <c r="C193">
-        <v>9541.870999999999</v>
+        <v>10496.0581</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5151,13 +4806,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B194">
+        <v>2019</v>
       </c>
       <c r="C194">
-        <v>7699.081</v>
+        <v>8468.989100000001</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5176,13 +4829,11 @@
           <t>0205</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B195">
+        <v>2020</v>
       </c>
       <c r="C195">
-        <v>8682.2135</v>
+        <v>9550.434850000001</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5201,13 +4852,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B196">
+        <v>2008</v>
       </c>
       <c r="C196">
-        <v>128058.0291</v>
+        <v>61183.28057</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5226,13 +4875,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B197">
+        <v>2009</v>
       </c>
       <c r="C197">
-        <v>127281.3381</v>
+        <v>57983.72068999999</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5251,13 +4898,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B198">
+        <v>2010</v>
       </c>
       <c r="C198">
-        <v>28981.5456</v>
+        <v>38642.06080000001</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5276,10 +4921,8 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B199">
+        <v>2011</v>
       </c>
       <c r="C199">
         <v>32363.0156</v>
@@ -5301,13 +4944,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B200">
+        <v>2012</v>
       </c>
       <c r="C200">
-        <v>28417.332</v>
+        <v>37889.776</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5326,13 +4967,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B201">
+        <v>2013</v>
       </c>
       <c r="C201">
-        <v>24248.3304</v>
+        <v>32331.1072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5351,13 +4990,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B202">
+        <v>2014</v>
       </c>
       <c r="C202">
-        <v>27659.7645</v>
+        <v>36879.686</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5376,13 +5013,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B203">
+        <v>2015</v>
       </c>
       <c r="C203">
-        <v>27864.8025</v>
+        <v>37153.07</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5401,13 +5036,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B204">
+        <v>2016</v>
       </c>
       <c r="C204">
-        <v>28848.6942</v>
+        <v>38464.9256</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5426,13 +5059,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B205">
+        <v>2017</v>
       </c>
       <c r="C205">
-        <v>21784.4793</v>
+        <v>29045.9724</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5451,13 +5082,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B206">
+        <v>2018</v>
       </c>
       <c r="C206">
-        <v>26691.729</v>
+        <v>35588.972</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5476,13 +5105,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B207">
+        <v>2019</v>
       </c>
       <c r="C207">
-        <v>26057.42364855734</v>
+        <v>34743.23153140979</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5501,13 +5128,11 @@
           <t>0301</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B208">
+        <v>2020</v>
       </c>
       <c r="C208">
-        <v>18337.35131690596</v>
+        <v>24449.80175587462</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5526,13 +5151,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B209">
+        <v>2008</v>
       </c>
       <c r="C209">
-        <v>38781.818</v>
+        <v>37896.58085</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5551,13 +5174,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B210">
+        <v>2009</v>
       </c>
       <c r="C210">
-        <v>30629.9464</v>
+        <v>29564.55696</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5576,13 +5197,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B211">
+        <v>2010</v>
       </c>
       <c r="C211">
-        <v>28246.1784</v>
+        <v>28149.88461</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5601,13 +5220,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B212">
+        <v>2011</v>
       </c>
       <c r="C212">
-        <v>26402.1912</v>
+        <v>26312.18373</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5626,13 +5243,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B213">
+        <v>2012</v>
       </c>
       <c r="C213">
-        <v>32484.3904</v>
+        <v>32373.64816</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5651,13 +5266,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B214">
+        <v>2013</v>
       </c>
       <c r="C214">
-        <v>31876.6624</v>
+        <v>31767.99196</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5676,13 +5289,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B215">
+        <v>2014</v>
       </c>
       <c r="C215">
-        <v>20065.276</v>
+        <v>19996.87165</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5701,13 +5312,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B216">
+        <v>2015</v>
       </c>
       <c r="C216">
-        <v>10431.8808</v>
+        <v>10396.31757</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5726,13 +5335,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B217">
+        <v>2016</v>
       </c>
       <c r="C217">
-        <v>32551.7984</v>
+        <v>32440.82636</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5751,13 +5358,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B218">
+        <v>2017</v>
       </c>
       <c r="C218">
-        <v>95700.13200000001</v>
+        <v>95373.88154999999</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5776,13 +5381,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B219">
+        <v>2018</v>
       </c>
       <c r="C219">
-        <v>79810.0776</v>
+        <v>79537.99778999999</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5801,13 +5404,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B220">
+        <v>2019</v>
       </c>
       <c r="C220">
-        <v>41007.2168</v>
+        <v>40867.41947</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5826,13 +5427,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B221">
+        <v>2020</v>
       </c>
       <c r="C221">
-        <v>32917.0776</v>
+        <v>32804.86029</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5851,13 +5450,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B222">
+        <v>2008</v>
       </c>
       <c r="C222">
-        <v>33009.9015</v>
+        <v>23196.147</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5876,13 +5473,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B223">
+        <v>2009</v>
       </c>
       <c r="C223">
-        <v>32430.6554</v>
+        <v>21299.05206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5901,13 +5496,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B224">
+        <v>2010</v>
       </c>
       <c r="C224">
-        <v>32071.9776</v>
+        <v>22851.28404</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5926,13 +5519,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B225">
+        <v>2011</v>
       </c>
       <c r="C225">
-        <v>32448.224</v>
+        <v>19367.5337</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5951,13 +5542,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B226">
+        <v>2012</v>
       </c>
       <c r="C226">
-        <v>42952.815</v>
+        <v>22773.41407058823</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5976,13 +5565,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B227">
+        <v>2013</v>
       </c>
       <c r="C227">
-        <v>50068.986</v>
+        <v>21382.40225647059</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6001,13 +5588,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B228">
+        <v>2014</v>
       </c>
       <c r="C228">
-        <v>49099.524</v>
+        <v>21189.81418117647</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6026,13 +5611,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B229">
+        <v>2015</v>
       </c>
       <c r="C229">
-        <v>46720.041</v>
+        <v>18165.85123588235</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6051,13 +5634,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B230">
+        <v>2016</v>
       </c>
       <c r="C230">
-        <v>46031.124</v>
+        <v>17139.82440705882</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6076,13 +5657,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B231">
+        <v>2017</v>
       </c>
       <c r="C231">
-        <v>39486.894</v>
+        <v>13030.67502</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6101,13 +5680,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B232">
+        <v>2018</v>
       </c>
       <c r="C232">
-        <v>42636.984</v>
+        <v>13928.08144</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6126,13 +5703,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B233">
+        <v>2019</v>
       </c>
       <c r="C233">
-        <v>51859.86</v>
+        <v>16768.0214</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6151,13 +5726,11 @@
           <t>0303</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B234">
+        <v>2020</v>
       </c>
       <c r="C234">
-        <v>58863.921</v>
+        <v>16678.11095</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6176,13 +5749,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B235">
+        <v>2008</v>
       </c>
       <c r="C235">
-        <v>32355.5232</v>
+        <v>34986.63168</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6201,13 +5772,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B236">
+        <v>2009</v>
       </c>
       <c r="C236">
-        <v>15349.6252</v>
+        <v>17002.66176</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6226,13 +5795,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B237">
+        <v>2010</v>
       </c>
       <c r="C237">
-        <v>21586.8533</v>
+        <v>21628.76952</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6251,13 +5818,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B238">
+        <v>2011</v>
       </c>
       <c r="C238">
-        <v>21925.0126</v>
+        <v>21967.58544</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6276,13 +5841,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B239">
+        <v>2012</v>
       </c>
       <c r="C239">
-        <v>14125.52</v>
+        <v>14577.53664</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6301,13 +5864,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B240">
+        <v>2014</v>
       </c>
       <c r="C240">
-        <v>20214.18</v>
+        <v>20861.03376</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6326,13 +5887,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B241">
+        <v>2015</v>
       </c>
       <c r="C241">
-        <v>7286.44</v>
+        <v>7519.60608</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6351,13 +5910,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B242">
+        <v>2017</v>
       </c>
       <c r="C242">
-        <v>52016.66</v>
+        <v>53681.19312</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6376,13 +5933,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B243">
+        <v>2019</v>
       </c>
       <c r="C243">
-        <v>38469.18</v>
+        <v>39700.19375999999</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6401,13 +5956,11 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B244">
+        <v>2020</v>
       </c>
       <c r="C244">
-        <v>38411.48</v>
+        <v>39640.64736</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6426,10 +5979,8 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B245">
+        <v>2008</v>
       </c>
       <c r="C245">
         <v>3243.8885</v>
@@ -6451,13 +6002,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B246">
+        <v>2009</v>
       </c>
       <c r="C246">
-        <v>2465.81</v>
+        <v>2317.8614</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6476,13 +6025,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B247">
+        <v>2010</v>
       </c>
       <c r="C247">
-        <v>4091.993</v>
+        <v>3682.7937</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6501,13 +6048,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B248">
+        <v>2011</v>
       </c>
       <c r="C248">
-        <v>3177.303</v>
+        <v>2859.5727</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6526,13 +6071,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B249">
+        <v>2012</v>
       </c>
       <c r="C249">
-        <v>1456.2092</v>
+        <v>1638.23535</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6551,13 +6094,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B250">
+        <v>2013</v>
       </c>
       <c r="C250">
-        <v>2709.12</v>
+        <v>3047.76</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6576,13 +6117,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B251">
+        <v>2014</v>
       </c>
       <c r="C251">
-        <v>2504.9184</v>
+        <v>2818.0332</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6601,13 +6140,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B252">
+        <v>2015</v>
       </c>
       <c r="C252">
-        <v>2579.3916</v>
+        <v>2901.81555</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6626,13 +6163,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B253">
+        <v>2016</v>
       </c>
       <c r="C253">
-        <v>2251.5772</v>
+        <v>2533.02435</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6651,13 +6186,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B254">
+        <v>2017</v>
       </c>
       <c r="C254">
-        <v>2686.1416</v>
+        <v>3021.9093</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6676,13 +6209,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B255">
+        <v>2018</v>
       </c>
       <c r="C255">
-        <v>2332.95</v>
+        <v>2624.56875</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6701,13 +6232,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B256">
+        <v>2019</v>
       </c>
       <c r="C256">
-        <v>1322.6072</v>
+        <v>1487.9331</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6726,13 +6255,11 @@
           <t>0305</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B257">
+        <v>2020</v>
       </c>
       <c r="C257">
-        <v>2006.7868</v>
+        <v>2257.63515</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6751,13 +6278,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B258">
+        <v>2008</v>
       </c>
       <c r="C258">
-        <v>-126.6443</v>
+        <v>-113.97987</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6776,13 +6301,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B259">
+        <v>2009</v>
       </c>
       <c r="C259">
-        <v>422.5912</v>
+        <v>380.33208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6801,13 +6324,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B260">
+        <v>2010</v>
       </c>
       <c r="C260">
-        <v>-59.598</v>
+        <v>-53.6382</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6826,13 +6347,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B261">
+        <v>2011</v>
       </c>
       <c r="C261">
-        <v>53.4495</v>
+        <v>48.10455</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6851,13 +6370,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B262">
+        <v>2012</v>
       </c>
       <c r="C262">
-        <v>161.815</v>
+        <v>145.6335</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6876,13 +6393,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B263">
+        <v>2013</v>
       </c>
       <c r="C263">
-        <v>168.1877</v>
+        <v>151.36893</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -6901,13 +6416,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B264">
+        <v>2015</v>
       </c>
       <c r="C264">
-        <v>98.0365</v>
+        <v>88.23284999999998</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -6926,13 +6439,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B265">
+        <v>2016</v>
       </c>
       <c r="C265">
-        <v>104.4031</v>
+        <v>93.96279</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -6951,13 +6462,11 @@
           <t>0306</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B266">
+        <v>2018</v>
       </c>
       <c r="C266">
-        <v>25.9248</v>
+        <v>23.33232</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -6976,10 +6485,8 @@
           <t>0307</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B267">
+        <v>2016</v>
       </c>
       <c r="C267">
         <v>329343.12</v>
@@ -7001,10 +6508,8 @@
           <t>0307</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B268">
+        <v>2017</v>
       </c>
       <c r="C268">
         <v>317922.88</v>
@@ -7026,10 +6531,8 @@
           <t>0307</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B269">
+        <v>2018</v>
       </c>
       <c r="C269">
         <v>225082.88</v>
@@ -7051,10 +6554,8 @@
           <t>0307</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B270">
+        <v>2019</v>
       </c>
       <c r="C270">
         <v>722369.8887606527</v>
@@ -7076,10 +6577,8 @@
           <t>0307</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B271">
+        <v>2020</v>
       </c>
       <c r="C271">
         <v>153917.4237249747</v>
@@ -7101,13 +6600,11 @@
           <t>0308</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B272">
+        <v>2017</v>
       </c>
       <c r="C272">
-        <v>-221.611</v>
+        <v>-375.034</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7126,13 +6623,11 @@
           <t>0308</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B273">
+        <v>2018</v>
       </c>
       <c r="C273">
-        <v>749.073</v>
+        <v>1267.662</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7151,13 +6646,11 @@
           <t>0308</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B274">
+        <v>2019</v>
       </c>
       <c r="C274">
-        <v>404.456</v>
+        <v>684.4640000000001</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7176,13 +6669,11 @@
           <t>0308</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B275">
+        <v>2020</v>
       </c>
       <c r="C275">
-        <v>511.186</v>
+        <v>865.0839999999999</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7201,13 +6692,11 @@
           <t>0309</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B276">
+        <v>2016</v>
       </c>
       <c r="C276">
-        <v>47.6334</v>
+        <v>48.5155</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7226,13 +6715,11 @@
           <t>0309</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B277">
+        <v>2017</v>
       </c>
       <c r="C277">
-        <v>2554.5078</v>
+        <v>2601.8135</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7251,13 +6738,11 @@
           <t>0309</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B278">
+        <v>2018</v>
       </c>
       <c r="C278">
-        <v>3689.0424</v>
+        <v>3757.358</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7276,13 +6761,11 @@
           <t>0309</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B279">
+        <v>2019</v>
       </c>
       <c r="C279">
-        <v>5847.7842</v>
+        <v>5956.0765</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7301,13 +6784,11 @@
           <t>0309</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B280">
+        <v>2020</v>
       </c>
       <c r="C280">
-        <v>54679.806</v>
+        <v>55692.395</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7326,13 +6807,11 @@
           <t>0401</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B281">
+        <v>2020</v>
       </c>
       <c r="C281">
-        <v>50.2288</v>
+        <v>48.97308</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7351,13 +6830,11 @@
           <t>0402</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B282">
+        <v>2010</v>
       </c>
       <c r="C282">
-        <v>729.7266000000001</v>
+        <v>839.18559</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7376,13 +6853,11 @@
           <t>0402</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B283">
+        <v>2011</v>
       </c>
       <c r="C283">
-        <v>412.2362</v>
+        <v>474.07163</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7401,13 +6876,11 @@
           <t>0402</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B284">
+        <v>2012</v>
       </c>
       <c r="C284">
-        <v>644.1756000000001</v>
+        <v>740.8019400000001</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7426,13 +6899,11 @@
           <t>0402</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B285">
+        <v>2013</v>
       </c>
       <c r="C285">
-        <v>560.3556</v>
+        <v>644.40894</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7451,13 +6922,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B286">
+        <v>2008</v>
       </c>
       <c r="C286">
-        <v>21668.8566</v>
+        <v>35706.50718</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7476,13 +6945,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B287">
+        <v>2009</v>
       </c>
       <c r="C287">
-        <v>18237.0496</v>
+        <v>29813.61152</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7501,13 +6968,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B288">
+        <v>2010</v>
       </c>
       <c r="C288">
-        <v>21133.9512</v>
+        <v>23185.18764</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7526,13 +6991,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B289">
+        <v>2011</v>
       </c>
       <c r="C289">
-        <v>15352.4175</v>
+        <v>16361.29065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7551,13 +7014,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B290">
+        <v>2012</v>
       </c>
       <c r="C290">
-        <v>16089.8948</v>
+        <v>17651.56106</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7576,13 +7037,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B291">
+        <v>2013</v>
       </c>
       <c r="C291">
-        <v>13289.2094</v>
+        <v>14579.04443</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7601,13 +7060,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B292">
+        <v>2014</v>
       </c>
       <c r="C292">
-        <v>16604.036</v>
+        <v>18215.6042</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7626,13 +7083,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B293">
+        <v>2015</v>
       </c>
       <c r="C293">
-        <v>14829.831</v>
+        <v>16269.19695</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7651,13 +7106,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B294">
+        <v>2016</v>
       </c>
       <c r="C294">
-        <v>32229.2732</v>
+        <v>35357.40854</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7676,13 +7129,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B295">
+        <v>2017</v>
       </c>
       <c r="C295">
-        <v>41363.2304</v>
+        <v>45377.89688</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7701,13 +7152,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B296">
+        <v>2018</v>
       </c>
       <c r="C296">
-        <v>29881.7262</v>
+        <v>32782.01139</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7726,13 +7175,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B297">
+        <v>2019</v>
       </c>
       <c r="C297">
-        <v>28418.62667232774</v>
+        <v>31176.90514346543</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7751,13 +7198,11 @@
           <t>0403</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B298">
+        <v>2020</v>
       </c>
       <c r="C298">
-        <v>76526.47850831141</v>
+        <v>83954.04848117693</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7776,13 +7221,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B299">
+        <v>2008</v>
       </c>
       <c r="C299">
-        <v>15872.396</v>
+        <v>13928.02749</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7801,13 +7244,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B300">
+        <v>2009</v>
       </c>
       <c r="C300">
-        <v>19239.308</v>
+        <v>16882.49277</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7826,13 +7267,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B301">
+        <v>2010</v>
       </c>
       <c r="C301">
-        <v>23232.3572</v>
+        <v>31363.68222</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7851,13 +7290,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B302">
+        <v>2011</v>
       </c>
       <c r="C302">
-        <v>28883.0111</v>
+        <v>34958.40308999999</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7876,13 +7313,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B303">
+        <v>2012</v>
       </c>
       <c r="C303">
-        <v>18477.7821</v>
+        <v>24021.11673</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -7901,13 +7336,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B304">
+        <v>2013</v>
       </c>
       <c r="C304">
-        <v>29142.2448</v>
+        <v>37884.91823999999</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -7926,13 +7359,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B305">
+        <v>2014</v>
       </c>
       <c r="C305">
-        <v>22687.1658</v>
+        <v>29493.31554</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -7951,13 +7382,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B306">
+        <v>2015</v>
       </c>
       <c r="C306">
-        <v>18430.7265</v>
+        <v>23959.94445</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -7976,13 +7405,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B307">
+        <v>2016</v>
       </c>
       <c r="C307">
-        <v>19374.9138</v>
+        <v>25187.38794</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8001,13 +7428,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B308">
+        <v>2017</v>
       </c>
       <c r="C308">
-        <v>22856.8203</v>
+        <v>29713.86639</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8026,13 +7451,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B309">
+        <v>2018</v>
       </c>
       <c r="C309">
-        <v>20550.2022</v>
+        <v>26715.26286</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8051,13 +7474,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B310">
+        <v>2019</v>
       </c>
       <c r="C310">
-        <v>21645.6057</v>
+        <v>28139.28741</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8076,13 +7497,11 @@
           <t>0404</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B311">
+        <v>2020</v>
       </c>
       <c r="C311">
-        <v>19849.8762</v>
+        <v>25804.83906</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8101,13 +7520,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B312">
+        <v>2008</v>
       </c>
       <c r="C312">
-        <v>19382.7576</v>
+        <v>18252.09674</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8126,13 +7543,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B313">
+        <v>2009</v>
       </c>
       <c r="C313">
-        <v>22485.444</v>
+        <v>20611.657</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -8151,13 +7566,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B314">
+        <v>2010</v>
       </c>
       <c r="C314">
-        <v>14625.0132</v>
+        <v>14903.58488</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -8176,13 +7589,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B315">
+        <v>2011</v>
       </c>
       <c r="C315">
-        <v>14255.2305</v>
+        <v>14526.7587</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -8201,13 +7612,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B316">
+        <v>2012</v>
       </c>
       <c r="C316">
-        <v>13948.0971</v>
+        <v>14213.77514</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -8226,13 +7635,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B317">
+        <v>2013</v>
       </c>
       <c r="C317">
-        <v>19951.1109</v>
+        <v>20331.13206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -8251,13 +7658,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B318">
+        <v>2014</v>
       </c>
       <c r="C318">
-        <v>22510.6455</v>
+        <v>22939.4197</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -8276,13 +7681,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B319">
+        <v>2015</v>
       </c>
       <c r="C319">
-        <v>20292.6108</v>
+        <v>20679.13672</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -8301,13 +7704,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B320">
+        <v>2016</v>
       </c>
       <c r="C320">
-        <v>21384.0249</v>
+        <v>21791.33966</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -8326,13 +7727,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B321">
+        <v>2017</v>
       </c>
       <c r="C321">
-        <v>22270.6869</v>
+        <v>22694.89046</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -8351,13 +7750,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B322">
+        <v>2018</v>
       </c>
       <c r="C322">
-        <v>20252.064</v>
+        <v>20637.8176</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -8376,13 +7773,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B323">
+        <v>2019</v>
       </c>
       <c r="C323">
-        <v>17804.5686</v>
+        <v>18143.70324</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -8401,13 +7796,11 @@
           <t>0405</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B324">
+        <v>2020</v>
       </c>
       <c r="C324">
-        <v>16688.8008</v>
+        <v>17006.68272</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -8426,10 +7819,11 @@
           <t>0407</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B325">
+        <v>2014</v>
+      </c>
+      <c r="C325">
+        <v>16576.1956</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -8448,10 +7842,11 @@
           <t>0407</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B326">
+        <v>2015</v>
+      </c>
+      <c r="C326">
+        <v>15267.5512</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -8470,10 +7865,11 @@
           <t>0407</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B327">
+        <v>2016</v>
+      </c>
+      <c r="C327">
+        <v>14090.578</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -8492,10 +7888,11 @@
           <t>0407</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B328">
+        <v>2017</v>
+      </c>
+      <c r="C328">
+        <v>10139.4792</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -8514,10 +7911,11 @@
           <t>0407</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B329">
+        <v>2018</v>
+      </c>
+      <c r="C329">
+        <v>9324.651600000001</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -8536,10 +7934,11 @@
           <t>0407</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B330">
+        <v>2019</v>
+      </c>
+      <c r="C330">
+        <v>16583.3004</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -8558,10 +7957,11 @@
           <t>0407</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B331">
+        <v>2020</v>
+      </c>
+      <c r="C331">
+        <v>-36980.45080000001</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -8580,13 +7980,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B332">
+        <v>2008</v>
       </c>
       <c r="C332">
-        <v>10845.468</v>
+        <v>12291.5304</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -8605,13 +8003,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B333">
+        <v>2009</v>
       </c>
       <c r="C333">
-        <v>8506.031999999999</v>
+        <v>10030.0294</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -8630,10 +8026,8 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B334">
+        <v>2010</v>
       </c>
       <c r="C334">
         <v>10086.5373</v>
@@ -8655,13 +8049,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B335">
+        <v>2011</v>
       </c>
       <c r="C335">
-        <v>133454.7144</v>
+        <v>127099.728</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -8680,13 +8072,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B336">
+        <v>2012</v>
       </c>
       <c r="C336">
-        <v>115329.357</v>
+        <v>108877.365</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -8705,13 +8095,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B337">
+        <v>2013</v>
       </c>
       <c r="C337">
-        <v>88775.0864</v>
+        <v>64563.6992</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -8730,13 +8118,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B338">
+        <v>2014</v>
       </c>
       <c r="C338">
-        <v>98234.7509</v>
+        <v>70069.5426</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -8755,13 +8141,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B339">
+        <v>2015</v>
       </c>
       <c r="C339">
-        <v>98973.5604</v>
+        <v>70596.52559999999</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -8780,13 +8164,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B340">
+        <v>2016</v>
       </c>
       <c r="C340">
-        <v>93953.1164</v>
+        <v>67015.50959999999</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -8805,13 +8187,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B341">
+        <v>2017</v>
       </c>
       <c r="C341">
-        <v>87116.12910000001</v>
+        <v>62138.7774</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -8830,13 +8210,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B342">
+        <v>2018</v>
       </c>
       <c r="C342">
-        <v>92287.5239</v>
+        <v>65827.46459999999</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -8855,13 +8233,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B343">
+        <v>2019</v>
       </c>
       <c r="C343">
-        <v>95968.68710000001</v>
+        <v>68453.18939999999</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -8880,13 +8256,11 @@
           <t>0408</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B344">
+        <v>2020</v>
       </c>
       <c r="C344">
-        <v>107081.2457</v>
+        <v>76379.6298</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -8905,13 +8279,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B345">
+        <v>2009</v>
       </c>
       <c r="C345">
-        <v>10.0668</v>
+        <v>9.06012</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -8930,13 +8302,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B346">
+        <v>2010</v>
       </c>
       <c r="C346">
-        <v>12.5209</v>
+        <v>11.26881</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -8955,13 +8325,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B347">
+        <v>2011</v>
       </c>
       <c r="C347">
-        <v>17.7922</v>
+        <v>16.01298</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -8980,13 +8348,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B348">
+        <v>2014</v>
       </c>
       <c r="C348">
-        <v>9.821999999999999</v>
+        <v>8.839799999999999</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -9005,13 +8371,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B349">
+        <v>2015</v>
       </c>
       <c r="C349">
-        <v>8.010300000000001</v>
+        <v>7.209269999999999</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -9030,13 +8394,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B350">
+        <v>2016</v>
       </c>
       <c r="C350">
-        <v>7.237100000000001</v>
+        <v>6.513389999999999</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -9055,13 +8417,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B351">
+        <v>2017</v>
       </c>
       <c r="C351">
-        <v>6.7355</v>
+        <v>6.06195</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -9080,13 +8440,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B352">
+        <v>2018</v>
       </c>
       <c r="C352">
-        <v>8.4039</v>
+        <v>7.563509999999999</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -9105,13 +8463,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B353">
+        <v>2019</v>
       </c>
       <c r="C353">
-        <v>8.088200000000001</v>
+        <v>7.27938</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -9130,13 +8486,11 @@
           <t>0501</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B354">
+        <v>2020</v>
       </c>
       <c r="C354">
-        <v>16.015</v>
+        <v>14.4135</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -9155,13 +8509,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B355">
+        <v>2008</v>
       </c>
       <c r="C355">
-        <v>134.4353</v>
+        <v>147.87883</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -9180,13 +8532,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B356">
+        <v>2009</v>
       </c>
       <c r="C356">
-        <v>80.85250000000001</v>
+        <v>88.93774999999999</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -9205,13 +8555,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B357">
+        <v>2010</v>
       </c>
       <c r="C357">
-        <v>212.1841</v>
+        <v>233.40251</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -9230,13 +8578,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B358">
+        <v>2011</v>
       </c>
       <c r="C358">
-        <v>365.7136</v>
+        <v>402.28496</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -9255,13 +8601,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B359">
+        <v>2012</v>
       </c>
       <c r="C359">
-        <v>415.7417</v>
+        <v>457.31587</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -9280,13 +8624,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B360">
+        <v>2013</v>
       </c>
       <c r="C360">
-        <v>418.8977</v>
+        <v>460.78747</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -9305,13 +8647,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B361">
+        <v>2014</v>
       </c>
       <c r="C361">
-        <v>399.1048000000001</v>
+        <v>439.01528</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -9330,13 +8670,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B362">
+        <v>2015</v>
       </c>
       <c r="C362">
-        <v>347.6741</v>
+        <v>382.44151</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -9355,13 +8693,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B363">
+        <v>2016</v>
       </c>
       <c r="C363">
-        <v>324.1722</v>
+        <v>356.58942</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -9380,13 +8716,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B364">
+        <v>2017</v>
       </c>
       <c r="C364">
-        <v>404.9175</v>
+        <v>445.40925</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -9405,13 +8739,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B365">
+        <v>2018</v>
       </c>
       <c r="C365">
-        <v>639.7969000000001</v>
+        <v>703.7765899999999</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -9430,13 +8762,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B366">
+        <v>2019</v>
       </c>
       <c r="C366">
-        <v>584.0983</v>
+        <v>642.5081300000001</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -9455,13 +8785,11 @@
           <t>0503</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B367">
+        <v>2020</v>
       </c>
       <c r="C367">
-        <v>534.1180000000001</v>
+        <v>587.5298</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -9480,13 +8808,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B368">
+        <v>2008</v>
       </c>
       <c r="C368">
-        <v>33857.8516</v>
+        <v>23700.49612</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -9505,13 +8831,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B369">
+        <v>2010</v>
       </c>
       <c r="C369">
-        <v>16765.1089</v>
+        <v>11735.57623</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -9530,13 +8854,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B370">
+        <v>2011</v>
       </c>
       <c r="C370">
-        <v>14114.4159</v>
+        <v>9880.091130000001</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -9555,13 +8877,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B371">
+        <v>2012</v>
       </c>
       <c r="C371">
-        <v>10282.5628</v>
+        <v>7197.793960000001</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -9580,13 +8900,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B372">
+        <v>2013</v>
       </c>
       <c r="C372">
-        <v>10084.1627</v>
+        <v>7058.913890000001</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -9605,13 +8923,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B373">
+        <v>2015</v>
       </c>
       <c r="C373">
-        <v>7430.139200000001</v>
+        <v>5201.09744</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -9630,13 +8946,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B374">
+        <v>2016</v>
       </c>
       <c r="C374">
-        <v>4727.4035</v>
+        <v>3309.18245</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -9655,13 +8969,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B375">
+        <v>2017</v>
       </c>
       <c r="C375">
-        <v>4305.1942</v>
+        <v>3013.635940000001</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -9680,13 +8992,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B376">
+        <v>2018</v>
       </c>
       <c r="C376">
-        <v>3842.9472</v>
+        <v>2690.06304</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9705,13 +9015,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B377">
+        <v>2019</v>
       </c>
       <c r="C377">
-        <v>3015.9282</v>
+        <v>2111.14974</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -9730,13 +9038,11 @@
           <t>0504</t>
         </is>
       </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B378">
+        <v>2020</v>
       </c>
       <c r="C378">
-        <v>2473.5639</v>
+        <v>1731.49473</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -9755,10 +9061,8 @@
           <t>0506</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B379">
+        <v>2008</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -9780,10 +9084,8 @@
           <t>0506</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B380">
+        <v>2009</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -9805,10 +9107,8 @@
           <t>0506</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B381">
+        <v>2010</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -9830,13 +9130,11 @@
           <t>0506</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B382">
+        <v>2018</v>
       </c>
       <c r="C382">
-        <v>6.637</v>
+        <v>5.9733</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -9855,13 +9153,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B383">
+        <v>2008</v>
       </c>
       <c r="C383">
-        <v>119005.664</v>
+        <v>19573.3</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -9880,13 +9176,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B384">
+        <v>2009</v>
       </c>
       <c r="C384">
-        <v>96698.3416</v>
+        <v>15840.71517</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -9905,13 +9199,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B385">
+        <v>2010</v>
       </c>
       <c r="C385">
-        <v>109117.0456</v>
+        <v>17875.09497</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -9930,13 +9222,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B386">
+        <v>2011</v>
       </c>
       <c r="C386">
-        <v>88115.87439999999</v>
+        <v>14434.77153</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -9955,13 +9245,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B387">
+        <v>2012</v>
       </c>
       <c r="C387">
-        <v>103962.7584</v>
+        <v>17976.89364</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -9980,13 +9268,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B388">
+        <v>2013</v>
       </c>
       <c r="C388">
-        <v>124771.2624</v>
+        <v>21575.03079</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -10005,13 +9291,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B389">
+        <v>2014</v>
       </c>
       <c r="C389">
-        <v>155837.0016</v>
+        <v>26946.81486</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -10030,13 +9314,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B390">
+        <v>2015</v>
       </c>
       <c r="C390">
-        <v>155349.4464</v>
+        <v>26862.50844</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -10055,13 +9337,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B391">
+        <v>2016</v>
       </c>
       <c r="C391">
-        <v>150180.696</v>
+        <v>25968.74535</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -10080,13 +9360,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B392">
+        <v>2017</v>
       </c>
       <c r="C392">
-        <v>159868.008</v>
+        <v>27643.84305</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -10105,13 +9383,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B393">
+        <v>2018</v>
       </c>
       <c r="C393">
-        <v>165100.9968</v>
+        <v>28548.71403</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -10130,13 +9406,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B394">
+        <v>2019</v>
       </c>
       <c r="C394">
-        <v>88990.04160000001</v>
+        <v>15387.86136</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -10155,13 +9429,11 @@
           <t>0601</t>
         </is>
       </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B395">
+        <v>2020</v>
       </c>
       <c r="C395">
-        <v>42699.6576</v>
+        <v>7383.482460000001</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -10180,13 +9452,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B396">
+        <v>2008</v>
       </c>
       <c r="C396">
-        <v>4547.487</v>
+        <v>35121.75793</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -10205,13 +9475,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B397">
+        <v>2009</v>
       </c>
       <c r="C397">
-        <v>11318.73</v>
+        <v>87418.3247</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -10230,13 +9498,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B398">
+        <v>2010</v>
       </c>
       <c r="C398">
-        <v>1288.6685</v>
+        <v>8530.985470000001</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -10255,13 +9521,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B399">
+        <v>2011</v>
       </c>
       <c r="C399">
-        <v>866.133</v>
+        <v>5902.441650000001</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -10280,13 +9544,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B400">
+        <v>2012</v>
       </c>
       <c r="C400">
-        <v>2922.1104</v>
+        <v>20516.75696</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -10305,13 +9567,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B401">
+        <v>2013</v>
       </c>
       <c r="C401">
-        <v>2614.3128</v>
+        <v>18355.64472</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10330,13 +9590,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B402">
+        <v>2014</v>
       </c>
       <c r="C402">
-        <v>2661.3642</v>
+        <v>18686.00258</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10355,13 +9613,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B403">
+        <v>2015</v>
       </c>
       <c r="C403">
-        <v>4193.9931</v>
+        <v>29446.91519</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10380,13 +9636,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B404">
+        <v>2016</v>
       </c>
       <c r="C404">
-        <v>2827.7304</v>
+        <v>19854.09496</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -10405,13 +9659,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B405">
+        <v>2017</v>
       </c>
       <c r="C405">
-        <v>9728.373599999999</v>
+        <v>68304.97464</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -10430,13 +9682,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B406">
+        <v>2018</v>
       </c>
       <c r="C406">
-        <v>9602.402699999999</v>
+        <v>67420.50623</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -10455,13 +9705,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B407">
+        <v>2019</v>
       </c>
       <c r="C407">
-        <v>2601.3834</v>
+        <v>18264.86466</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -10480,13 +9728,11 @@
           <t>0602</t>
         </is>
       </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B408">
+        <v>2020</v>
       </c>
       <c r="C408">
-        <v>4532.563200000001</v>
+        <v>31824.08768</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -10505,13 +9751,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B409">
+        <v>2008</v>
       </c>
       <c r="C409">
-        <v>14514.294</v>
+        <v>13062.8646</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -10530,13 +9774,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B410">
+        <v>2009</v>
       </c>
       <c r="C410">
-        <v>20644.822</v>
+        <v>18580.3398</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -10555,13 +9797,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B411">
+        <v>2010</v>
       </c>
       <c r="C411">
-        <v>26593.603</v>
+        <v>23934.2427</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -10580,13 +9820,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B412">
+        <v>2011</v>
       </c>
       <c r="C412">
-        <v>2289.604</v>
+        <v>2060.6436</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -10605,13 +9843,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B413">
+        <v>2012</v>
       </c>
       <c r="C413">
-        <v>2126.5</v>
+        <v>1913.85</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -10630,13 +9866,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B414">
+        <v>2013</v>
       </c>
       <c r="C414">
-        <v>1776.897</v>
+        <v>1599.2073</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -10655,13 +9889,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B415">
+        <v>2014</v>
       </c>
       <c r="C415">
-        <v>1804.11</v>
+        <v>1623.699</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -10680,13 +9912,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B416">
+        <v>2015</v>
       </c>
       <c r="C416">
-        <v>2804.7845</v>
+        <v>2524.30605</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -10705,13 +9935,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B417">
+        <v>2016</v>
       </c>
       <c r="C417">
-        <v>2777.742</v>
+        <v>2499.9678</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -10730,13 +9958,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B418">
+        <v>2017</v>
       </c>
       <c r="C418">
-        <v>3500.7565</v>
+        <v>3150.68085</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -10755,13 +9981,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B419">
+        <v>2018</v>
       </c>
       <c r="C419">
-        <v>4208.7995</v>
+        <v>3787.91955</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -10780,13 +10004,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B420">
+        <v>2019</v>
       </c>
       <c r="C420">
-        <v>5399.986</v>
+        <v>4859.9874</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -10805,13 +10027,11 @@
           <t>0701</t>
         </is>
       </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B421">
+        <v>2020</v>
       </c>
       <c r="C421">
-        <v>6034.358</v>
+        <v>5430.9222</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -10830,13 +10050,11 @@
           <t>0703</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B422">
+        <v>2008</v>
       </c>
       <c r="C422">
-        <v>53678.872</v>
+        <v>7607.94782</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -10855,13 +10073,11 @@
           <t>0703</t>
         </is>
       </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B423">
+        <v>2009</v>
       </c>
       <c r="C423">
-        <v>40638.884</v>
+        <v>5759.78029</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -10880,13 +10096,11 @@
           <t>0703</t>
         </is>
       </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B424">
+        <v>2010</v>
       </c>
       <c r="C424">
-        <v>16913.468</v>
+        <v>2397.15883</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -10905,13 +10119,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B425">
+        <v>2008</v>
       </c>
       <c r="C425">
-        <v>483.8074</v>
+        <v>435.42666</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -10930,13 +10142,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B426">
+        <v>2009</v>
       </c>
       <c r="C426">
-        <v>279.8466</v>
+        <v>251.86194</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -10955,13 +10165,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B427">
+        <v>2010</v>
       </c>
       <c r="C427">
-        <v>347.6714</v>
+        <v>312.90426</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -10980,13 +10188,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B428">
+        <v>2011</v>
       </c>
       <c r="C428">
-        <v>534.2008000000001</v>
+        <v>480.78072</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -11005,13 +10211,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B429">
+        <v>2012</v>
       </c>
       <c r="C429">
-        <v>379.0144</v>
+        <v>341.11296</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -11030,13 +10234,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B430">
+        <v>2013</v>
       </c>
       <c r="C430">
-        <v>432.145</v>
+        <v>388.9305</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -11055,13 +10257,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B431">
+        <v>2014</v>
       </c>
       <c r="C431">
-        <v>764.6922000000001</v>
+        <v>688.22298</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -11080,13 +10280,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B432">
+        <v>2015</v>
       </c>
       <c r="C432">
-        <v>491.2462</v>
+        <v>442.1215799999999</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -11105,13 +10303,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B433">
+        <v>2016</v>
       </c>
       <c r="C433">
-        <v>372.9898000000001</v>
+        <v>335.69082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -11130,13 +10326,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B434">
+        <v>2017</v>
       </c>
       <c r="C434">
-        <v>336.5006</v>
+        <v>302.85054</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -11155,13 +10349,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B435">
+        <v>2018</v>
       </c>
       <c r="C435">
-        <v>544.5074000000001</v>
+        <v>490.05666</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -11180,13 +10372,11 @@
           <t>0801</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B436">
+        <v>2020</v>
       </c>
       <c r="C436">
-        <v>1077.5048</v>
+        <v>969.7543199999999</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -11205,13 +10395,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B437">
+        <v>2008</v>
       </c>
       <c r="C437">
-        <v>241913.617</v>
+        <v>241697.3008</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -11230,10 +10418,8 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B438">
+        <v>2009</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -11255,10 +10441,8 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B439">
+        <v>2010</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -11280,10 +10464,8 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B440">
+        <v>2011</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -11305,10 +10487,8 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B441">
+        <v>2012</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -11330,13 +10510,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B442">
+        <v>2013</v>
       </c>
       <c r="C442">
-        <v>978894.0534999999</v>
+        <v>978018.7384000001</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -11355,13 +10533,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B443">
+        <v>2014</v>
       </c>
       <c r="C443">
-        <v>1007541.0565</v>
+        <v>1006640.1256</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -11380,13 +10556,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B444">
+        <v>2015</v>
       </c>
       <c r="C444">
-        <v>1054198.706</v>
+        <v>1053256.0544</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11405,13 +10579,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B445">
+        <v>2016</v>
       </c>
       <c r="C445">
-        <v>1115869.9805</v>
+        <v>1114872.1832</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -11430,13 +10602,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B446">
+        <v>2017</v>
       </c>
       <c r="C446">
-        <v>1210841.3075</v>
+        <v>1209758.588</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -11455,13 +10625,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B447">
+        <v>2018</v>
       </c>
       <c r="C447">
-        <v>1870045.1275</v>
+        <v>1868372.956</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -11480,13 +10648,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B448">
+        <v>2019</v>
       </c>
       <c r="C448">
-        <v>2219231.179</v>
+        <v>2217246.7696</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -11505,13 +10671,11 @@
           <t>0802</t>
         </is>
       </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B449">
+        <v>2020</v>
       </c>
       <c r="C449">
-        <v>1428726.079</v>
+        <v>1427448.5296</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -11530,13 +10694,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B450">
+        <v>2008</v>
       </c>
       <c r="C450">
-        <v>18789.8862</v>
+        <v>15031.90896</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -11555,13 +10717,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B451">
+        <v>2009</v>
       </c>
       <c r="C451">
-        <v>16540.7172</v>
+        <v>13232.57376</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -11580,13 +10740,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B452">
+        <v>2010</v>
       </c>
       <c r="C452">
-        <v>3726.0968</v>
+        <v>2235.65808</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -11605,13 +10763,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B453">
+        <v>2011</v>
       </c>
       <c r="C453">
-        <v>22999.4253</v>
+        <v>18399.54024</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -11630,13 +10786,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B454">
+        <v>2012</v>
       </c>
       <c r="C454">
-        <v>26995.6149</v>
+        <v>21596.49192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -11655,13 +10809,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B455">
+        <v>2013</v>
       </c>
       <c r="C455">
-        <v>35054.5707</v>
+        <v>28043.65656</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -11680,13 +10832,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B456">
+        <v>2014</v>
       </c>
       <c r="C456">
-        <v>48341.3457</v>
+        <v>38673.07655999999</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -11705,13 +10855,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B457">
+        <v>2015</v>
       </c>
       <c r="C457">
-        <v>51544.1007</v>
+        <v>41235.28055999999</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -11730,13 +10878,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B458">
+        <v>2016</v>
       </c>
       <c r="C458">
-        <v>61556.8839</v>
+        <v>49245.50711999999</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -11755,13 +10901,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B459">
+        <v>2017</v>
       </c>
       <c r="C459">
-        <v>41045.565</v>
+        <v>32836.452</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -11780,13 +10924,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B460">
+        <v>2018</v>
       </c>
       <c r="C460">
-        <v>41620.8507</v>
+        <v>33296.68056</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -11805,13 +10947,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B461">
+        <v>2019</v>
       </c>
       <c r="C461">
-        <v>52531.70819999999</v>
+        <v>42025.36655999999</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -11830,13 +10970,11 @@
           <t>0901</t>
         </is>
       </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B462">
+        <v>2020</v>
       </c>
       <c r="C462">
-        <v>152669.964</v>
+        <v>122135.9712</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -11855,10 +10993,8 @@
           <t>0902</t>
         </is>
       </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B463">
+        <v>2008</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -11880,10 +11016,8 @@
           <t>0902</t>
         </is>
       </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B464">
+        <v>2009</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -11905,13 +11039,11 @@
           <t>0902</t>
         </is>
       </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B465">
+        <v>2016</v>
       </c>
       <c r="C465">
-        <v>3403.6524</v>
+        <v>3472.98606</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -11930,13 +11062,11 @@
           <t>0902</t>
         </is>
       </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B466">
+        <v>2017</v>
       </c>
       <c r="C466">
-        <v>4574.107800000001</v>
+        <v>4667.28407</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -11955,13 +11085,11 @@
           <t>0902</t>
         </is>
       </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B467">
+        <v>2018</v>
       </c>
       <c r="C467">
-        <v>5496.606</v>
+        <v>5608.573899999999</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -11980,13 +11108,11 @@
           <t>0902</t>
         </is>
       </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B468">
+        <v>2019</v>
       </c>
       <c r="C468">
-        <v>7123.329000000001</v>
+        <v>7268.433849999999</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -12005,13 +11131,11 @@
           <t>0902</t>
         </is>
       </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B469">
+        <v>2020</v>
       </c>
       <c r="C469">
-        <v>5782.2336</v>
+        <v>5900.01984</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -12030,10 +11154,8 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B470">
+        <v>2008</v>
       </c>
       <c r="C470">
         <v>3615.876</v>
@@ -12055,10 +11177,8 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B471">
+        <v>2010</v>
       </c>
       <c r="C471">
         <v>1164.152</v>
@@ -12080,10 +11200,8 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B472">
+        <v>2011</v>
       </c>
       <c r="C472">
         <v>272.404</v>
@@ -12105,13 +11223,11 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B473">
+        <v>2013</v>
       </c>
       <c r="C473">
-        <v>1020.6864</v>
+        <v>1039.588</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -12130,13 +11246,11 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B474">
+        <v>2015</v>
       </c>
       <c r="C474">
-        <v>-738.072</v>
+        <v>-751.74</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12155,13 +11269,11 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B475">
+        <v>2016</v>
       </c>
       <c r="C475">
-        <v>-6631.2864</v>
+        <v>-6754.088</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -12180,13 +11292,11 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B476">
+        <v>2017</v>
       </c>
       <c r="C476">
-        <v>2451.2112</v>
+        <v>2496.604</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -12205,13 +11315,11 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B477">
+        <v>2018</v>
       </c>
       <c r="C477">
-        <v>6696.345600000001</v>
+        <v>6820.352</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12230,13 +11338,11 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B478">
+        <v>2019</v>
       </c>
       <c r="C478">
-        <v>86129.69760000001</v>
+        <v>87724.692</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12255,13 +11361,11 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B479">
+        <v>2020</v>
       </c>
       <c r="C479">
-        <v>5619.412800000001</v>
+        <v>5723.476</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12280,13 +11384,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B480">
+        <v>2008</v>
       </c>
       <c r="C480">
-        <v>8170.118600000001</v>
+        <v>8171.89086</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12305,13 +11407,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B481">
+        <v>2009</v>
       </c>
       <c r="C481">
-        <v>8848.249599999999</v>
+        <v>8850.168959999999</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -12330,13 +11430,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B482">
+        <v>2010</v>
       </c>
       <c r="C482">
-        <v>10776.5204</v>
+        <v>10778.85804</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -12355,13 +11453,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B483">
+        <v>2011</v>
       </c>
       <c r="C483">
-        <v>9580.3176</v>
+        <v>9582.395759999999</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -12380,13 +11476,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B484">
+        <v>2012</v>
       </c>
       <c r="C484">
-        <v>18336.1716</v>
+        <v>18664.03692</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -12405,13 +11499,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B485">
+        <v>2013</v>
       </c>
       <c r="C485">
-        <v>12351.951</v>
+        <v>12572.8137</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -12430,13 +11522,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B486">
+        <v>2014</v>
       </c>
       <c r="C486">
-        <v>1979.3382</v>
+        <v>2014.73034</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -12455,13 +11545,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B487">
+        <v>2015</v>
       </c>
       <c r="C487">
-        <v>-633.1127999999999</v>
+        <v>-644.43336</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -12480,13 +11568,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B488">
+        <v>2016</v>
       </c>
       <c r="C488">
-        <v>2638.272</v>
+        <v>2685.4464</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -12505,13 +11591,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B489">
+        <v>2017</v>
       </c>
       <c r="C489">
-        <v>2839.3134</v>
+        <v>2890.08258</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -12530,13 +11614,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B490">
+        <v>2018</v>
       </c>
       <c r="C490">
-        <v>2974.5792</v>
+        <v>3027.76704</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -12555,13 +11637,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B491">
+        <v>2019</v>
       </c>
       <c r="C491">
-        <v>2453.538599999999</v>
+        <v>2497.40982</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -12580,13 +11660,11 @@
           <t>1002</t>
         </is>
       </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B492">
+        <v>2020</v>
       </c>
       <c r="C492">
-        <v>-677.9598</v>
+        <v>-690.08226</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
